--- a/Question_Set2/Programming skills/Angular.xlsx
+++ b/Question_Set2/Programming skills/Angular.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following answers is an invalid template statement?@Component({\n template: `\n  &amp;ltbutton #Answer1 (click)="log()"&amp;gtText 1&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer2 (click)="log(Math.max(1, 2))"&amp;gtText 2&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer3 (click)="log(\'1\', \'2\')"&amp;gtText 3&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer4 (click)="log(Answer1)"&amp;gtText 4&amp;lt/button&amp;gt\n `\n})\nexport class DemoComponent {\n log(answer?: HTMLElement): void { }\n}', 'ques_type': 2, 'options': ['Answer1', 'Answer2', 'Answer3', 'Answer4'], 'score': 'Answer2'}, {'title': "Which of the following is an incorrect syntax for adding the 'valid' class to an html element?", 'ques_type': 2, 'options': ['[ngClass]="{\'valid\': isValid}"\t', '*ngClass="{\'valid\': isValid}"', '[class.valid]="isValid"', '[ngClass]="isValid ? \'valid\' : \'\'"'], 'score': '*ngClass="{\'valid\': isValid}"'}, {'title': "True or false: Given the service from the code snippet below, it is required to register the service as a provider in a specific NgModule to make it available at the root level.@Injectable({ providedIn: 'root' })\nexport class DemoService { }", 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'Consider the following definition of the DemoModule.What is the type of the forRoot() static method?@NgModule({\n imports: [CommonModule]\n})\nexport class DemoModule {\n static forRoot(): ? {\n  return {\n   ngModule: DemoModule,\n   providers: [DemoService]\n  }\n }\n}', 'ques_type': 2, 'options': ['LazyLoadedModule', 'ModuleWithProviders', 'ModuleForRoot', 'Observable&amp;ltNgModule&amp;gt'], 'score': 'ModuleWithProviders'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following answers is an invalid template statement?@Component({\n template: `\n  &amp;ltbutton #Answer1 (click)=\"log()\"&amp;gtText 1&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer2 (click)=\"log(Math.max(1, 2))\"&amp;gtText 2&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer3 (click)=\"log('1', '2')\"&amp;gtText 3&amp;lt/button&amp;gt\n  &amp;ltbutton #Answer4 (click)=\"log(Answer1)\"&amp;gtText 4&amp;lt/button&amp;gt\n `\n})\nexport class DemoComponent {\n log(answer?: HTMLElement): void { }\n}",
+        "ques_type": 2,
+        "options": [
+            "Answer1",
+            "Answer2",
+            "Answer3",
+            "Answer4"
+        ],
+        "score": "Answer2"
+    },
+    {
+        "title": "Which of the following is an incorrect syntax for adding the 'valid' class to an html element?",
+        "ques_type": 2,
+        "options": [
+            "[ngClass]=\"{'valid': isValid}\"\t",
+            "*ngClass=\"{'valid': isValid}\"",
+            "[class.valid]=\"isValid\"",
+            "[ngClass]=\"isValid ? 'valid' : ''\""
+        ],
+        "score": "*ngClass=\"{'valid': isValid}\""
+    },
+    {
+        "title": "True or false: Given the service from the code snippet below, it is required to register the service as a provider in a specific NgModule to make it available at the root level.@Injectable({ providedIn: 'root' })\nexport class DemoService { }",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "Consider the following definition of the DemoModule.What is the type of the forRoot() static method?@NgModule({\n imports: [CommonModule]\n})\nexport class DemoModule {\n static forRoot(): ? {\n  return {\n   ngModule: DemoModule,\n   providers: [DemoService]\n  }\n }\n}",
+        "ques_type": 2,
+        "options": [
+            "LazyLoadedModule",
+            "ModuleWithProviders",
+            "ModuleForRoot",
+            "Observable&amp;ltNgModule&amp;gt"
+        ],
+        "score": "ModuleWithProviders"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
